--- a/data/tests/trend_data.xlsx
+++ b/data/tests/trend_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0881881a0a4a5542/AI 2nd Year/Thesis/Thesis Code/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0881881a0a4a5542/Documenten/GitHub/Crypto_Forecasting/data/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{EDB753E8-543D-414A-B176-5926AA43755F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29A576E9-C410-4CA3-A3B7-CFE13F119C2A}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{EDB753E8-543D-414A-B176-5926AA43755F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AEC9E99-5D44-421A-AF35-33113F9E078B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B5950EFE-4627-4A20-BE93-85AE665FEA52}"/>
   </bookViews>
@@ -371,6 +371,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Trend Test</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -393,7 +448,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -436,6 +491,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Datasets</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -452,7 +562,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -494,7 +604,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -534,7 +644,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100"/>
       </a:pPr>
       <a:endParaRPr lang="en-NL"/>
     </a:p>
@@ -801,6 +911,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Trend Test</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -823,7 +988,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -866,6 +1031,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Datasets</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -882,7 +1102,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -924,7 +1144,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -964,7 +1184,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100"/>
       </a:pPr>
       <a:endParaRPr lang="en-NL"/>
     </a:p>
@@ -2072,15 +2292,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2108,15 +2328,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2142,10 +2362,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2447,8 +2663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB321EC4-917A-4D57-A5FC-2A88385E16D4}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
